--- a/Phenoloxidase Activity data/Data for 150 samples/15. Phenoloxidase 14-08-24 (SEG 7 - 15).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/15. Phenoloxidase 14-08-24 (SEG 7 - 15).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -816,6 +816,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1020,11 +1021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243269272"/>
-        <c:axId val="243274368"/>
+        <c:axId val="258127944"/>
+        <c:axId val="258128328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243269272"/>
+        <c:axId val="258127944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,12 +1082,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243274368"/>
+        <c:crossAx val="258128328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243274368"/>
+        <c:axId val="258128328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243269272"/>
+        <c:crossAx val="258127944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1375,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297577016"/>
-        <c:axId val="297577408"/>
+        <c:axId val="259198144"/>
+        <c:axId val="259195400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297577016"/>
+        <c:axId val="259198144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,12 +1437,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297577408"/>
+        <c:crossAx val="259195400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297577408"/>
+        <c:axId val="259195400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297577016"/>
+        <c:crossAx val="259198144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1548,6 +1549,1560 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$N$23:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$O$23:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.1699998875459038E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3366668919722244E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3499999543031052E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3433334231376648E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3700002928574875E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3933332761128739E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4066665867964431E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4233332872390747E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4466667671998337E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5033333996931716E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5033333996931716E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259193048"/>
+        <c:axId val="259195792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259193048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259195792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="259195792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259193048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$B$28:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$C$28:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.080000102519989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2700003385543823E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2799997627735138E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2700003385543823E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2700003385543823E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2799997627735138E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3000001013278961E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3100002706050873E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3600003719329834E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3699997961521149E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259193440"/>
+        <c:axId val="259196184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259193440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259196184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="259196184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259193440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$F$28:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$G$28:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.4099997282028198E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4300000667572021E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4400002360343933E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4300000667572021E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4400002360343933E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4499996602535248E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4499996602535248E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4699999988079071E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4800001680850983E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5399996936321259E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5300002694129944E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259197360"/>
+        <c:axId val="259198536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259197360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259198536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="259198536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259197360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$J$28:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$K$28:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0199998319149017E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3100002706050873E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3299998641014099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3500002026557922E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4000003039836884E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4599998295307159E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4900003373622894E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4999997615814209E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.549999862909317E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6100001335144043E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6100001335144043E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259191088"/>
+        <c:axId val="259191872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259191088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259191872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="259191872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259191088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1670,7 +3225,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Slope for standard and NC'!$N$23:$N$33</c:f>
+              <c:f>'Slope(Sample - Blank)'!$N$18:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1712,42 +3267,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Slope for standard and NC'!$O$23:$O$33</c:f>
+              <c:f>'Slope(Sample - Blank)'!$O$18:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.1699998875459038E-2</c:v>
+                  <c:v>-8.1183334191640144E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3366668919722244E-2</c:v>
+                  <c:v>-7.628333568572998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3499999543031052E-2</c:v>
+                  <c:v>-7.0133328437805176E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3433334231376648E-2</c:v>
+                  <c:v>-6.3316673040390015E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3700002928574875E-2</c:v>
+                  <c:v>-5.7316680749257443E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3933332761128739E-2</c:v>
+                  <c:v>-5.3799986839294434E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4066665867964431E-2</c:v>
+                  <c:v>-4.8799981673558479E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4233332872390747E-2</c:v>
+                  <c:v>-4.4416656096776364E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4466667671998337E-2</c:v>
+                  <c:v>-4.0083328882853153E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5033333996931716E-2</c:v>
+                  <c:v>-3.6749998728434319E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5033333996931716E-2</c:v>
+                  <c:v>-3.3983329931894901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,11 +3317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297573880"/>
-        <c:axId val="297575056"/>
+        <c:axId val="258684088"/>
+        <c:axId val="258684472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297573880"/>
+        <c:axId val="258684088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +3378,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297575056"/>
+        <c:crossAx val="258684472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297575056"/>
+        <c:axId val="258684472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,1567 +3440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297573880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$B$28:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$C$28:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.080000102519989E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2700003385543823E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2799997627735138E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2700003385543823E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2700003385543823E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2799997627735138E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3000001013278961E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3100002706050873E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3600003719329834E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3699997961521149E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="243273584"/>
-        <c:axId val="243272408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="243273584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="243272408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="243272408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="243273584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$F$28:$F$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$G$28:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.4099997282028198E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4300000667572021E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4400002360343933E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4300000667572021E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4400002360343933E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4499996602535248E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4499996602535248E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4699999988079071E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4800001680850983E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5399996936321259E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5300002694129944E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="297240264"/>
-        <c:axId val="303735352"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="297240264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="303735352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="303735352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="297240264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$J$28:$J$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$K$28:$K$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.0199998319149017E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3100002706050873E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3299998641014099E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3500002026557922E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4000003039836884E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4599998295307159E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4900003373622894E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4999997615814209E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.549999862909317E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6100001335144043E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6100001335144043E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="404332424"/>
-        <c:axId val="404328896"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="404332424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404328896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="404328896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404332424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$N$18:$N$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$O$18:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-8.1183334191640144E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.628333568572998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.0133328437805176E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.3316673040390015E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.7316680749257443E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.3799986839294434E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.8799981673558479E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.4416656096776364E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.0083328882853153E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.6749998728434319E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.3983329931894901E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="243273976"/>
-        <c:axId val="243269664"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="243273976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="243269664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="243269664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="243273976"/>
+        <c:crossAx val="258684088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3707,11 +3702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243272800"/>
-        <c:axId val="243270056"/>
+        <c:axId val="259353984"/>
+        <c:axId val="299079376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243272800"/>
+        <c:axId val="259353984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,12 +3763,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243270056"/>
+        <c:crossAx val="299079376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243270056"/>
+        <c:axId val="299079376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3830,7 +3825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243272800"/>
+        <c:crossAx val="259353984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4098,11 +4093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243270448"/>
-        <c:axId val="243271232"/>
+        <c:axId val="258712224"/>
+        <c:axId val="258712608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243270448"/>
+        <c:axId val="258712224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,12 +4154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243271232"/>
+        <c:crossAx val="258712608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243271232"/>
+        <c:axId val="258712608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243270448"/>
+        <c:crossAx val="258712224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4489,11 +4484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297572704"/>
-        <c:axId val="297574272"/>
+        <c:axId val="299077408"/>
+        <c:axId val="299077792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297572704"/>
+        <c:axId val="299077408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4550,12 +4545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297574272"/>
+        <c:crossAx val="299077792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297574272"/>
+        <c:axId val="299077792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +4607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297572704"/>
+        <c:crossAx val="299077408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4888,11 +4883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297571528"/>
-        <c:axId val="297573488"/>
+        <c:axId val="258238792"/>
+        <c:axId val="258237224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297571528"/>
+        <c:axId val="258238792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,12 +4944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297573488"/>
+        <c:crossAx val="258237224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297573488"/>
+        <c:axId val="258237224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5011,7 +5006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297571528"/>
+        <c:crossAx val="258238792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5293,11 +5288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297571920"/>
-        <c:axId val="297576232"/>
+        <c:axId val="258237616"/>
+        <c:axId val="258236048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297571920"/>
+        <c:axId val="258237616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,12 +5349,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297576232"/>
+        <c:crossAx val="258236048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297576232"/>
+        <c:axId val="258236048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5416,7 +5411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297571920"/>
+        <c:crossAx val="258237616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5684,11 +5679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297572312"/>
-        <c:axId val="297575448"/>
+        <c:axId val="258236832"/>
+        <c:axId val="258238008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297572312"/>
+        <c:axId val="258236832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,12 +5740,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297575448"/>
+        <c:crossAx val="258238008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297575448"/>
+        <c:axId val="258238008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,7 +5802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297572312"/>
+        <c:crossAx val="258236832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6075,11 +6070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297574664"/>
-        <c:axId val="297571136"/>
+        <c:axId val="259196968"/>
+        <c:axId val="259192656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297574664"/>
+        <c:axId val="259196968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,12 +6131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297571136"/>
+        <c:crossAx val="259192656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297571136"/>
+        <c:axId val="259192656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,7 +6193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297574664"/>
+        <c:crossAx val="259196968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14726,8 +14721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18745,8 +18740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W75" sqref="W75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23957,7 +23952,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Phenoloxidase Activity data/Data for 150 samples/15. Phenoloxidase 14-08-24 (SEG 7 - 15).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/15. Phenoloxidase 14-08-24 (SEG 7 - 15).xlsx
@@ -1021,11 +1021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258127944"/>
-        <c:axId val="258128328"/>
+        <c:axId val="288845216"/>
+        <c:axId val="288847960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258127944"/>
+        <c:axId val="288845216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,12 +1082,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258128328"/>
+        <c:crossAx val="288847960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258128328"/>
+        <c:axId val="288847960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258127944"/>
+        <c:crossAx val="288845216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1376,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259198144"/>
-        <c:axId val="259195400"/>
+        <c:axId val="389956872"/>
+        <c:axId val="389954912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259198144"/>
+        <c:axId val="389956872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +1437,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259195400"/>
+        <c:crossAx val="389954912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259195400"/>
+        <c:axId val="389954912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259198144"/>
+        <c:crossAx val="389956872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1761,11 +1761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259193048"/>
-        <c:axId val="259195792"/>
+        <c:axId val="389953736"/>
+        <c:axId val="389955304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259193048"/>
+        <c:axId val="389953736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,12 +1822,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259195792"/>
+        <c:crossAx val="389955304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259195792"/>
+        <c:axId val="389955304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259193048"/>
+        <c:crossAx val="389953736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2160,11 +2160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259193440"/>
-        <c:axId val="259196184"/>
+        <c:axId val="389952560"/>
+        <c:axId val="389950600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259193440"/>
+        <c:axId val="389952560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,12 +2221,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259196184"/>
+        <c:crossAx val="389950600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259196184"/>
+        <c:axId val="389950600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259193440"/>
+        <c:crossAx val="389952560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2545,11 +2545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259197360"/>
-        <c:axId val="259198536"/>
+        <c:axId val="389950208"/>
+        <c:axId val="389951384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259197360"/>
+        <c:axId val="389950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,12 +2606,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259198536"/>
+        <c:crossAx val="389951384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259198536"/>
+        <c:axId val="389951384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259197360"/>
+        <c:crossAx val="389950208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2930,11 +2930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259191088"/>
-        <c:axId val="259191872"/>
+        <c:axId val="389954128"/>
+        <c:axId val="389954520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259191088"/>
+        <c:axId val="389954128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,12 +2991,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259191872"/>
+        <c:crossAx val="389954520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259191872"/>
+        <c:axId val="389954520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,7 +3053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259191088"/>
+        <c:crossAx val="389954128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3317,11 +3317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258684088"/>
-        <c:axId val="258684472"/>
+        <c:axId val="296230624"/>
+        <c:axId val="296227488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258684088"/>
+        <c:axId val="296230624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,12 +3378,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258684472"/>
+        <c:crossAx val="296227488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258684472"/>
+        <c:axId val="296227488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258684088"/>
+        <c:crossAx val="296230624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3504,6 +3504,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3578,6 +3579,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3702,11 +3704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259353984"/>
-        <c:axId val="299079376"/>
+        <c:axId val="296230232"/>
+        <c:axId val="296232192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259353984"/>
+        <c:axId val="296230232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,12 +3765,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299079376"/>
+        <c:crossAx val="296232192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299079376"/>
+        <c:axId val="296232192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,7 +3827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259353984"/>
+        <c:crossAx val="296230232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3889,6 +3891,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4093,11 +4096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258712224"/>
-        <c:axId val="258712608"/>
+        <c:axId val="296228664"/>
+        <c:axId val="296229840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258712224"/>
+        <c:axId val="296228664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,12 +4157,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258712608"/>
+        <c:crossAx val="296229840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258712608"/>
+        <c:axId val="296229840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,7 +4219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258712224"/>
+        <c:crossAx val="296228664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4280,6 +4283,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4484,11 +4488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299077408"/>
-        <c:axId val="299077792"/>
+        <c:axId val="296227880"/>
+        <c:axId val="296226312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299077408"/>
+        <c:axId val="296227880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4545,12 +4549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299077792"/>
+        <c:crossAx val="296226312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299077792"/>
+        <c:axId val="296226312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4607,7 +4611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299077408"/>
+        <c:crossAx val="296227880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4671,6 +4675,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4745,6 +4750,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4883,11 +4889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258238792"/>
-        <c:axId val="258237224"/>
+        <c:axId val="296229448"/>
+        <c:axId val="296227096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258238792"/>
+        <c:axId val="296229448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4944,12 +4950,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258237224"/>
+        <c:crossAx val="296227096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258237224"/>
+        <c:axId val="296227096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5006,7 +5012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258238792"/>
+        <c:crossAx val="296229448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5070,6 +5076,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5288,11 +5295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258237616"/>
-        <c:axId val="258236048"/>
+        <c:axId val="296231408"/>
+        <c:axId val="296231800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258237616"/>
+        <c:axId val="296231408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,12 +5356,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258236048"/>
+        <c:crossAx val="296231800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258236048"/>
+        <c:axId val="296231800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,7 +5418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258237616"/>
+        <c:crossAx val="296231408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5475,6 +5482,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5679,11 +5687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258236832"/>
-        <c:axId val="258238008"/>
+        <c:axId val="296225528"/>
+        <c:axId val="296226704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258236832"/>
+        <c:axId val="296225528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5740,12 +5748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258238008"/>
+        <c:crossAx val="296226704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258238008"/>
+        <c:axId val="296226704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5802,7 +5810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258236832"/>
+        <c:crossAx val="296225528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5866,6 +5874,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6070,11 +6079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259196968"/>
-        <c:axId val="259192656"/>
+        <c:axId val="389957264"/>
+        <c:axId val="389957656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259196968"/>
+        <c:axId val="389957264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,12 +6140,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259192656"/>
+        <c:crossAx val="389957656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259192656"/>
+        <c:axId val="389957656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6193,7 +6202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259196968"/>
+        <c:crossAx val="389957264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14721,8 +14730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18741,7 +18750,7 @@
   <dimension ref="A2:W140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23952,7 +23961,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
